--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sirpa-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sirpa-Cd47.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>94.95332266666666</v>
+        <v>0.197995</v>
       </c>
       <c r="H2">
-        <v>284.859968</v>
+        <v>0.593985</v>
       </c>
       <c r="I2">
-        <v>0.6912729447872573</v>
+        <v>0.00464724904661508</v>
       </c>
       <c r="J2">
-        <v>0.6912729447872574</v>
+        <v>0.00464724904661508</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.45197733333333</v>
+        <v>33.54649666666666</v>
       </c>
       <c r="N2">
-        <v>178.355932</v>
+        <v>100.63949</v>
       </c>
       <c r="O2">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="P2">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="Q2">
-        <v>5645.162786903353</v>
+        <v>6.642038607516666</v>
       </c>
       <c r="R2">
-        <v>50806.46508213017</v>
+        <v>59.77834746764999</v>
       </c>
       <c r="S2">
-        <v>0.2103007509901784</v>
+        <v>0.0009196641656570847</v>
       </c>
       <c r="T2">
-        <v>0.2103007509901785</v>
+        <v>0.0009196641656570847</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>94.95332266666666</v>
+        <v>0.197995</v>
       </c>
       <c r="H3">
-        <v>284.859968</v>
+        <v>0.593985</v>
       </c>
       <c r="I3">
-        <v>0.6912729447872573</v>
+        <v>0.00464724904661508</v>
       </c>
       <c r="J3">
-        <v>0.6912729447872574</v>
+        <v>0.00464724904661508</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>321.531037</v>
       </c>
       <c r="O3">
-        <v>0.548436823552382</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="P3">
-        <v>0.5484368235523819</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="Q3">
-        <v>10176.81343453631</v>
+        <v>21.22051255693833</v>
       </c>
       <c r="R3">
-        <v>91591.32091082681</v>
+        <v>190.984613012445</v>
       </c>
       <c r="S3">
-        <v>0.3791195380468245</v>
+        <v>0.002938216130422185</v>
       </c>
       <c r="T3">
-        <v>0.3791195380468245</v>
+        <v>0.002938216130422185</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>94.95332266666666</v>
+        <v>0.197995</v>
       </c>
       <c r="H4">
-        <v>284.859968</v>
+        <v>0.593985</v>
       </c>
       <c r="I4">
-        <v>0.6912729447872573</v>
+        <v>0.00464724904661508</v>
       </c>
       <c r="J4">
-        <v>0.6912729447872574</v>
+        <v>0.00464724904661508</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>86.38117199999999</v>
       </c>
       <c r="O4">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="P4">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="Q4">
-        <v>2734.059765746944</v>
+        <v>5.701013383379999</v>
       </c>
       <c r="R4">
-        <v>24606.53789172249</v>
+        <v>51.30912045042</v>
       </c>
       <c r="S4">
-        <v>0.1018526557502544</v>
+        <v>0.0007893687505358099</v>
       </c>
       <c r="T4">
-        <v>0.1018526557502544</v>
+        <v>0.0007893687505358096</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>109.788347</v>
       </c>
       <c r="I5">
-        <v>0.2664246382770613</v>
+        <v>0.8589674670659959</v>
       </c>
       <c r="J5">
-        <v>0.2664246382770613</v>
+        <v>0.8589674670659959</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.45197733333333</v>
+        <v>33.54649666666666</v>
       </c>
       <c r="N5">
-        <v>178.355932</v>
+        <v>100.63949</v>
       </c>
       <c r="O5">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="P5">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="Q5">
-        <v>2175.711439102712</v>
+        <v>1227.671472224781</v>
       </c>
       <c r="R5">
-        <v>19581.4029519244</v>
+        <v>11049.04325002303</v>
       </c>
       <c r="S5">
-        <v>0.08105235700956866</v>
+        <v>0.1699847783069025</v>
       </c>
       <c r="T5">
-        <v>0.08105235700956867</v>
+        <v>0.1699847783069025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>109.788347</v>
       </c>
       <c r="I6">
-        <v>0.2664246382770613</v>
+        <v>0.8589674670659959</v>
       </c>
       <c r="J6">
-        <v>0.2664246382770613</v>
+        <v>0.8589674670659959</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>321.531037</v>
       </c>
       <c r="O6">
-        <v>0.548436823552382</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="P6">
-        <v>0.5484368235523819</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="Q6">
         <v>3922.262340158426</v>
@@ -818,10 +818,10 @@
         <v>35300.36106142584</v>
       </c>
       <c r="S6">
-        <v>0.1461170823327639</v>
+        <v>0.5430808725603983</v>
       </c>
       <c r="T6">
-        <v>0.1461170823327639</v>
+        <v>0.5430808725603983</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>109.788347</v>
       </c>
       <c r="I7">
-        <v>0.2664246382770613</v>
+        <v>0.8589674670659959</v>
       </c>
       <c r="J7">
-        <v>0.2664246382770613</v>
+        <v>0.8589674670659959</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>86.38117199999999</v>
       </c>
       <c r="O7">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="P7">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="Q7">
         <v>1053.738453978076</v>
@@ -880,10 +880,10 @@
         <v>9483.646085802684</v>
       </c>
       <c r="S7">
-        <v>0.03925519893472876</v>
+        <v>0.1459018161986951</v>
       </c>
       <c r="T7">
-        <v>0.03925519893472876</v>
+        <v>0.1459018161986951</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>17.431993</v>
       </c>
       <c r="I8">
-        <v>0.04230241693568138</v>
+        <v>0.136385283887389</v>
       </c>
       <c r="J8">
-        <v>0.04230241693568138</v>
+        <v>0.136385283887389</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>59.45197733333333</v>
+        <v>33.54649666666666</v>
       </c>
       <c r="N8">
-        <v>178.355932</v>
+        <v>100.63949</v>
       </c>
       <c r="O8">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="P8">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="Q8">
-        <v>345.4554842369417</v>
+        <v>194.9274316892855</v>
       </c>
       <c r="R8">
-        <v>3109.099358132476</v>
+        <v>1754.34688520357</v>
       </c>
       <c r="S8">
-        <v>0.01286934505011084</v>
+        <v>0.02698987229994889</v>
       </c>
       <c r="T8">
-        <v>0.01286934505011085</v>
+        <v>0.02698987229994889</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>17.431993</v>
       </c>
       <c r="I9">
-        <v>0.04230241693568138</v>
+        <v>0.136385283887389</v>
       </c>
       <c r="J9">
-        <v>0.04230241693568138</v>
+        <v>0.136385283887389</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>321.531037</v>
       </c>
       <c r="O9">
-        <v>0.548436823552382</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="P9">
-        <v>0.5484368235523819</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="Q9">
         <v>622.7696429185266</v>
@@ -1004,10 +1004,10 @@
         <v>5604.92678626674</v>
       </c>
       <c r="S9">
-        <v>0.02320020317279358</v>
+        <v>0.08622938797782202</v>
       </c>
       <c r="T9">
-        <v>0.02320020317279358</v>
+        <v>0.08622938797782204</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>17.431993</v>
       </c>
       <c r="I10">
-        <v>0.04230241693568138</v>
+        <v>0.136385283887389</v>
       </c>
       <c r="J10">
-        <v>0.04230241693568138</v>
+        <v>0.136385283887389</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>86.38117199999999</v>
       </c>
       <c r="O10">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="P10">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="Q10">
         <v>167.3106650706439</v>
@@ -1066,10 +1066,10 @@
         <v>1505.795985635796</v>
       </c>
       <c r="S10">
-        <v>0.006232868712776951</v>
+        <v>0.02316602360961805</v>
       </c>
       <c r="T10">
-        <v>0.006232868712776951</v>
+        <v>0.02316602360961806</v>
       </c>
     </row>
   </sheetData>
